--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.9323339848569</v>
+        <v>50.17403933333333</v>
       </c>
       <c r="H2">
-        <v>49.9323339848569</v>
+        <v>150.522118</v>
       </c>
       <c r="I2">
-        <v>0.8160399324321872</v>
+        <v>0.7978131386685359</v>
       </c>
       <c r="J2">
-        <v>0.8160399324321872</v>
+        <v>0.797813138668536</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.492536771347505</v>
+        <v>0.464112</v>
       </c>
       <c r="N2">
-        <v>0.492536771347505</v>
+        <v>1.392336</v>
       </c>
       <c r="O2">
-        <v>0.02663391367080581</v>
+        <v>0.0167460263222975</v>
       </c>
       <c r="P2">
-        <v>0.02663391367080581</v>
+        <v>0.0167460263222975</v>
       </c>
       <c r="Q2">
-        <v>24.59351056674672</v>
+        <v>23.286373743072</v>
       </c>
       <c r="R2">
-        <v>24.59351056674672</v>
+        <v>209.577363687648</v>
       </c>
       <c r="S2">
-        <v>0.02173433711232908</v>
+        <v>0.01336019982041809</v>
       </c>
       <c r="T2">
-        <v>0.02173433711232908</v>
+        <v>0.01336019982041809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.9323339848569</v>
+        <v>50.17403933333333</v>
       </c>
       <c r="H3">
-        <v>49.9323339848569</v>
+        <v>150.522118</v>
       </c>
       <c r="I3">
-        <v>0.8160399324321872</v>
+        <v>0.7978131386685359</v>
       </c>
       <c r="J3">
-        <v>0.8160399324321872</v>
+        <v>0.797813138668536</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.51149811747412</v>
+        <v>0.519977</v>
       </c>
       <c r="N3">
-        <v>2.51149811747412</v>
+        <v>1.559931</v>
       </c>
       <c r="O3">
-        <v>0.1358091982902991</v>
+        <v>0.01876173968565624</v>
       </c>
       <c r="P3">
-        <v>0.1358091982902991</v>
+        <v>0.01876173968565624</v>
       </c>
       <c r="Q3">
-        <v>125.4049628040571</v>
+        <v>26.08934645042867</v>
       </c>
       <c r="R3">
-        <v>125.4049628040571</v>
+        <v>234.804118053858</v>
       </c>
       <c r="S3">
-        <v>0.1108257289964852</v>
+        <v>0.01496836242549543</v>
       </c>
       <c r="T3">
-        <v>0.1108257289964852</v>
+        <v>0.01496836242549544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.9323339848569</v>
+        <v>50.17403933333333</v>
       </c>
       <c r="H4">
-        <v>49.9323339848569</v>
+        <v>150.522118</v>
       </c>
       <c r="I4">
-        <v>0.8160399324321872</v>
+        <v>0.7978131386685359</v>
       </c>
       <c r="J4">
-        <v>0.8160399324321872</v>
+        <v>0.797813138668536</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.4888076365106</v>
+        <v>2.638014666666666</v>
       </c>
       <c r="N4">
-        <v>15.4888076365106</v>
+        <v>7.914044</v>
       </c>
       <c r="O4">
-        <v>0.8375568880388951</v>
+        <v>0.09518448789647081</v>
       </c>
       <c r="P4">
-        <v>0.8375568880388951</v>
+        <v>0.09518448789647084</v>
       </c>
       <c r="Q4">
-        <v>773.3923159334494</v>
+        <v>132.3598516472435</v>
       </c>
       <c r="R4">
-        <v>773.3923159334494</v>
+        <v>1191.238664825192</v>
       </c>
       <c r="S4">
-        <v>0.6834798663233729</v>
+        <v>0.07593943504124065</v>
       </c>
       <c r="T4">
-        <v>0.6834798663233729</v>
+        <v>0.07593943504124068</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.4777736733186</v>
+        <v>50.17403933333333</v>
       </c>
       <c r="H5">
-        <v>1.4777736733186</v>
+        <v>150.522118</v>
       </c>
       <c r="I5">
-        <v>0.02415113078612945</v>
+        <v>0.7978131386685359</v>
       </c>
       <c r="J5">
-        <v>0.02415113078612945</v>
+        <v>0.797813138668536</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.492536771347505</v>
+        <v>24.04528633333333</v>
       </c>
       <c r="N5">
-        <v>0.492536771347505</v>
+        <v>72.135859</v>
       </c>
       <c r="O5">
-        <v>0.02663391367080581</v>
+        <v>0.8675987646627977</v>
       </c>
       <c r="P5">
-        <v>0.02663391367080581</v>
+        <v>0.8675987646627977</v>
       </c>
       <c r="Q5">
-        <v>0.7278578738386858</v>
+        <v>1206.449142269929</v>
       </c>
       <c r="R5">
-        <v>0.7278578738386858</v>
+        <v>10858.04228042936</v>
       </c>
       <c r="S5">
-        <v>0.0006432391324101123</v>
+        <v>0.692181693540571</v>
       </c>
       <c r="T5">
-        <v>0.0006432391324101123</v>
+        <v>0.6921816935405711</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.4777736733186</v>
+        <v>50.17403933333333</v>
       </c>
       <c r="H6">
-        <v>1.4777736733186</v>
+        <v>150.522118</v>
       </c>
       <c r="I6">
-        <v>0.02415113078612945</v>
+        <v>0.7978131386685359</v>
       </c>
       <c r="J6">
-        <v>0.02415113078612945</v>
+        <v>0.797813138668536</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.51149811747412</v>
+        <v>0.047364</v>
       </c>
       <c r="N6">
-        <v>2.51149811747412</v>
+        <v>0.142092</v>
       </c>
       <c r="O6">
-        <v>0.1358091982902991</v>
+        <v>0.001708981432777646</v>
       </c>
       <c r="P6">
-        <v>0.1358091982902991</v>
+        <v>0.001708981432777646</v>
       </c>
       <c r="Q6">
-        <v>3.711425798592479</v>
+        <v>2.376443198984</v>
       </c>
       <c r="R6">
-        <v>3.711425798592479</v>
+        <v>21.387988790856</v>
       </c>
       <c r="S6">
-        <v>0.003279945709868403</v>
+        <v>0.001363447840810585</v>
       </c>
       <c r="T6">
-        <v>0.003279945709868403</v>
+        <v>0.001363447840810585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.4777736733186</v>
+        <v>1.656685</v>
       </c>
       <c r="H7">
-        <v>1.4777736733186</v>
+        <v>4.970055</v>
       </c>
       <c r="I7">
-        <v>0.02415113078612945</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="J7">
-        <v>0.02415113078612945</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>15.4888076365106</v>
+        <v>0.464112</v>
       </c>
       <c r="N7">
-        <v>15.4888076365106</v>
+        <v>1.392336</v>
       </c>
       <c r="O7">
-        <v>0.8375568880388951</v>
+        <v>0.0167460263222975</v>
       </c>
       <c r="P7">
-        <v>0.8375568880388951</v>
+        <v>0.0167460263222975</v>
       </c>
       <c r="Q7">
-        <v>22.88895215633145</v>
+        <v>0.7688873887200002</v>
       </c>
       <c r="R7">
-        <v>22.88895215633145</v>
+        <v>6.91998649848</v>
       </c>
       <c r="S7">
-        <v>0.02022794594385094</v>
+        <v>0.0004411373477914258</v>
       </c>
       <c r="T7">
-        <v>0.02022794594385094</v>
+        <v>0.0004411373477914258</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.23787526426819</v>
+        <v>1.656685</v>
       </c>
       <c r="H8">
-        <v>4.23787526426819</v>
+        <v>4.970055</v>
       </c>
       <c r="I8">
-        <v>0.06925923882024523</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="J8">
-        <v>0.06925923882024523</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.492536771347505</v>
+        <v>0.519977</v>
       </c>
       <c r="N8">
-        <v>0.492536771347505</v>
+        <v>1.559931</v>
       </c>
       <c r="O8">
-        <v>0.02663391367080581</v>
+        <v>0.01876173968565624</v>
       </c>
       <c r="P8">
-        <v>0.02663391367080581</v>
+        <v>0.01876173968565624</v>
       </c>
       <c r="Q8">
-        <v>2.087309400036109</v>
+        <v>0.8614380962450001</v>
       </c>
       <c r="R8">
-        <v>2.087309400036109</v>
+        <v>7.752942866205</v>
       </c>
       <c r="S8">
-        <v>0.001844644587644134</v>
+        <v>0.0004942368968967452</v>
       </c>
       <c r="T8">
-        <v>0.001844644587644134</v>
+        <v>0.0004942368968967452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.23787526426819</v>
+        <v>1.656685</v>
       </c>
       <c r="H9">
-        <v>4.23787526426819</v>
+        <v>4.970055</v>
       </c>
       <c r="I9">
-        <v>0.06925923882024523</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="J9">
-        <v>0.06925923882024523</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.51149811747412</v>
+        <v>2.638014666666666</v>
       </c>
       <c r="N9">
-        <v>2.51149811747412</v>
+        <v>7.914044</v>
       </c>
       <c r="O9">
-        <v>0.1358091982902991</v>
+        <v>0.09518448789647081</v>
       </c>
       <c r="P9">
-        <v>0.1358091982902991</v>
+        <v>0.09518448789647084</v>
       </c>
       <c r="Q9">
-        <v>10.6434157482997</v>
+        <v>4.370359328046667</v>
       </c>
       <c r="R9">
-        <v>10.6434157482997</v>
+        <v>39.33323395242</v>
       </c>
       <c r="S9">
-        <v>0.009406041698373868</v>
+        <v>0.002507426641604215</v>
       </c>
       <c r="T9">
-        <v>0.009406041698373868</v>
+        <v>0.002507426641604215</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.23787526426819</v>
+        <v>1.656685</v>
       </c>
       <c r="H10">
-        <v>4.23787526426819</v>
+        <v>4.970055</v>
       </c>
       <c r="I10">
-        <v>0.06925923882024523</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="J10">
-        <v>0.06925923882024523</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.4888076365106</v>
+        <v>24.04528633333333</v>
       </c>
       <c r="N10">
-        <v>15.4888076365106</v>
+        <v>72.135859</v>
       </c>
       <c r="O10">
-        <v>0.8375568880388951</v>
+        <v>0.8675987646627977</v>
       </c>
       <c r="P10">
-        <v>0.8375568880388951</v>
+        <v>0.8675987646627977</v>
       </c>
       <c r="Q10">
-        <v>65.63963475577653</v>
+        <v>39.83546518913834</v>
       </c>
       <c r="R10">
-        <v>65.63963475577653</v>
+        <v>358.519186702245</v>
       </c>
       <c r="S10">
-        <v>0.05800855253422723</v>
+        <v>0.02285498724439809</v>
       </c>
       <c r="T10">
-        <v>0.05800855253422723</v>
+        <v>0.02285498724439809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.89843949724443</v>
+        <v>1.656685</v>
       </c>
       <c r="H11">
-        <v>4.89843949724443</v>
+        <v>4.970055</v>
       </c>
       <c r="I11">
-        <v>0.08005478449228469</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="J11">
-        <v>0.08005478449228469</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.492536771347505</v>
+        <v>0.047364</v>
       </c>
       <c r="N11">
-        <v>0.492536771347505</v>
+        <v>0.142092</v>
       </c>
       <c r="O11">
-        <v>0.02663391367080581</v>
+        <v>0.001708981432777646</v>
       </c>
       <c r="P11">
-        <v>0.02663391367080581</v>
+        <v>0.001708981432777646</v>
       </c>
       <c r="Q11">
-        <v>2.412661574613868</v>
+        <v>0.07846722834</v>
       </c>
       <c r="R11">
-        <v>2.412661574613868</v>
+        <v>0.70620505506</v>
       </c>
       <c r="S11">
-        <v>0.002132172219102474</v>
+        <v>4.501936890404275E-05</v>
       </c>
       <c r="T11">
-        <v>0.002132172219102474</v>
+        <v>4.501936890404275E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.89843949724443</v>
+        <v>4.722579</v>
       </c>
       <c r="H12">
-        <v>4.89843949724443</v>
+        <v>14.167737</v>
       </c>
       <c r="I12">
-        <v>0.08005478449228469</v>
+        <v>0.07509332763840293</v>
       </c>
       <c r="J12">
-        <v>0.08005478449228469</v>
+        <v>0.07509332763840293</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.51149811747412</v>
+        <v>0.464112</v>
       </c>
       <c r="N12">
-        <v>2.51149811747412</v>
+        <v>1.392336</v>
       </c>
       <c r="O12">
-        <v>0.1358091982902991</v>
+        <v>0.0167460263222975</v>
       </c>
       <c r="P12">
-        <v>0.1358091982902991</v>
+        <v>0.0167460263222975</v>
       </c>
       <c r="Q12">
-        <v>12.30242157589026</v>
+        <v>2.191805584848</v>
       </c>
       <c r="R12">
-        <v>12.30242157589026</v>
+        <v>19.726250263632</v>
       </c>
       <c r="S12">
-        <v>0.01087217610119986</v>
+        <v>0.001257514841261606</v>
       </c>
       <c r="T12">
-        <v>0.01087217610119986</v>
+        <v>0.001257514841261606</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.89843949724443</v>
+        <v>4.722579</v>
       </c>
       <c r="H13">
-        <v>4.89843949724443</v>
+        <v>14.167737</v>
       </c>
       <c r="I13">
-        <v>0.08005478449228469</v>
+        <v>0.07509332763840293</v>
       </c>
       <c r="J13">
-        <v>0.08005478449228469</v>
+        <v>0.07509332763840293</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.4888076365106</v>
+        <v>0.519977</v>
       </c>
       <c r="N13">
-        <v>15.4888076365106</v>
+        <v>1.559931</v>
       </c>
       <c r="O13">
-        <v>0.8375568880388951</v>
+        <v>0.01876173968565624</v>
       </c>
       <c r="P13">
-        <v>0.8375568880388951</v>
+        <v>0.01876173968565624</v>
       </c>
       <c r="Q13">
-        <v>75.87098709190468</v>
+        <v>2.455632460683</v>
       </c>
       <c r="R13">
-        <v>75.87098709190468</v>
+        <v>22.100692146147</v>
       </c>
       <c r="S13">
-        <v>0.06705043617198236</v>
+        <v>0.001408881465281411</v>
       </c>
       <c r="T13">
-        <v>0.06705043617198236</v>
+        <v>0.001408881465281411</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.642168971954678</v>
+        <v>4.722579</v>
       </c>
       <c r="H14">
-        <v>0.642168971954678</v>
+        <v>14.167737</v>
       </c>
       <c r="I14">
-        <v>0.01049491346915344</v>
+        <v>0.07509332763840293</v>
       </c>
       <c r="J14">
-        <v>0.01049491346915344</v>
+        <v>0.07509332763840293</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.492536771347505</v>
+        <v>2.638014666666666</v>
       </c>
       <c r="N14">
-        <v>0.492536771347505</v>
+        <v>7.914044</v>
       </c>
       <c r="O14">
-        <v>0.02663391367080581</v>
+        <v>0.09518448789647081</v>
       </c>
       <c r="P14">
-        <v>0.02663391367080581</v>
+        <v>0.09518448789647084</v>
       </c>
       <c r="Q14">
-        <v>0.3162918321061036</v>
+        <v>12.458232666492</v>
       </c>
       <c r="R14">
-        <v>0.3162918321061036</v>
+        <v>112.124093998428</v>
       </c>
       <c r="S14">
-        <v>0.0002795206193200098</v>
+        <v>0.007147719935703281</v>
       </c>
       <c r="T14">
-        <v>0.0002795206193200098</v>
+        <v>0.007147719935703283</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.642168971954678</v>
+        <v>4.722579</v>
       </c>
       <c r="H15">
-        <v>0.642168971954678</v>
+        <v>14.167737</v>
       </c>
       <c r="I15">
-        <v>0.01049491346915344</v>
+        <v>0.07509332763840293</v>
       </c>
       <c r="J15">
-        <v>0.01049491346915344</v>
+        <v>0.07509332763840293</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.51149811747412</v>
+        <v>24.04528633333333</v>
       </c>
       <c r="N15">
-        <v>2.51149811747412</v>
+        <v>72.135859</v>
       </c>
       <c r="O15">
-        <v>0.1358091982902991</v>
+        <v>0.8675987646627977</v>
       </c>
       <c r="P15">
-        <v>0.1358091982902991</v>
+        <v>0.8675987646627977</v>
       </c>
       <c r="Q15">
-        <v>1.612806164164465</v>
+        <v>113.555764286787</v>
       </c>
       <c r="R15">
-        <v>1.612806164164465</v>
+        <v>1022.001878581083</v>
       </c>
       <c r="S15">
-        <v>0.00142530578437179</v>
+        <v>0.06515087829349711</v>
       </c>
       <c r="T15">
-        <v>0.00142530578437179</v>
+        <v>0.06515087829349711</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.722579</v>
+      </c>
+      <c r="H16">
+        <v>14.167737</v>
+      </c>
+      <c r="I16">
+        <v>0.07509332763840293</v>
+      </c>
+      <c r="J16">
+        <v>0.07509332763840293</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.047364</v>
+      </c>
+      <c r="N16">
+        <v>0.142092</v>
+      </c>
+      <c r="O16">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="P16">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="Q16">
+        <v>0.223680231756</v>
+      </c>
+      <c r="R16">
+        <v>2.013122085804</v>
+      </c>
+      <c r="S16">
+        <v>0.000128333102659519</v>
+      </c>
+      <c r="T16">
+        <v>0.000128333102659519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.642168971954678</v>
-      </c>
-      <c r="H16">
-        <v>0.642168971954678</v>
-      </c>
-      <c r="I16">
-        <v>0.01049491346915344</v>
-      </c>
-      <c r="J16">
-        <v>0.01049491346915344</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>15.4888076365106</v>
-      </c>
-      <c r="N16">
-        <v>15.4888076365106</v>
-      </c>
-      <c r="O16">
-        <v>0.8375568880388951</v>
-      </c>
-      <c r="P16">
-        <v>0.8375568880388951</v>
-      </c>
-      <c r="Q16">
-        <v>9.946431676741778</v>
-      </c>
-      <c r="R16">
-        <v>9.946431676741778</v>
-      </c>
-      <c r="S16">
-        <v>0.008790087065461636</v>
-      </c>
-      <c r="T16">
-        <v>0.008790087065461636</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.507876</v>
+      </c>
+      <c r="H17">
+        <v>16.523628</v>
+      </c>
+      <c r="I17">
+        <v>0.08758026854811665</v>
+      </c>
+      <c r="J17">
+        <v>0.08758026854811667</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.464112</v>
+      </c>
+      <c r="N17">
+        <v>1.392336</v>
+      </c>
+      <c r="O17">
+        <v>0.0167460263222975</v>
+      </c>
+      <c r="P17">
+        <v>0.0167460263222975</v>
+      </c>
+      <c r="Q17">
+        <v>2.556271346112</v>
+      </c>
+      <c r="R17">
+        <v>23.006442115008</v>
+      </c>
+      <c r="S17">
+        <v>0.001466621482420646</v>
+      </c>
+      <c r="T17">
+        <v>0.001466621482420646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.507876</v>
+      </c>
+      <c r="H18">
+        <v>16.523628</v>
+      </c>
+      <c r="I18">
+        <v>0.08758026854811665</v>
+      </c>
+      <c r="J18">
+        <v>0.08758026854811667</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.519977</v>
+      </c>
+      <c r="N18">
+        <v>1.559931</v>
+      </c>
+      <c r="O18">
+        <v>0.01876173968565624</v>
+      </c>
+      <c r="P18">
+        <v>0.01876173968565624</v>
+      </c>
+      <c r="Q18">
+        <v>2.863968838852</v>
+      </c>
+      <c r="R18">
+        <v>25.775719549668</v>
+      </c>
+      <c r="S18">
+        <v>0.001643158200099631</v>
+      </c>
+      <c r="T18">
+        <v>0.001643158200099631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.507876</v>
+      </c>
+      <c r="H19">
+        <v>16.523628</v>
+      </c>
+      <c r="I19">
+        <v>0.08758026854811665</v>
+      </c>
+      <c r="J19">
+        <v>0.08758026854811667</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.638014666666666</v>
+      </c>
+      <c r="N19">
+        <v>7.914044</v>
+      </c>
+      <c r="O19">
+        <v>0.09518448789647081</v>
+      </c>
+      <c r="P19">
+        <v>0.09518448789647084</v>
+      </c>
+      <c r="Q19">
+        <v>14.52985767018133</v>
+      </c>
+      <c r="R19">
+        <v>130.768719031632</v>
+      </c>
+      <c r="S19">
+        <v>0.008336283011587873</v>
+      </c>
+      <c r="T19">
+        <v>0.008336283011587876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.507876</v>
+      </c>
+      <c r="H20">
+        <v>16.523628</v>
+      </c>
+      <c r="I20">
+        <v>0.08758026854811665</v>
+      </c>
+      <c r="J20">
+        <v>0.08758026854811667</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>24.04528633333333</v>
+      </c>
+      <c r="N20">
+        <v>72.135859</v>
+      </c>
+      <c r="O20">
+        <v>0.8675987646627977</v>
+      </c>
+      <c r="P20">
+        <v>0.8675987646627977</v>
+      </c>
+      <c r="Q20">
+        <v>132.4384555084947</v>
+      </c>
+      <c r="R20">
+        <v>1191.946099576452</v>
+      </c>
+      <c r="S20">
+        <v>0.07598453280118209</v>
+      </c>
+      <c r="T20">
+        <v>0.0759845328011821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.507876</v>
+      </c>
+      <c r="H21">
+        <v>16.523628</v>
+      </c>
+      <c r="I21">
+        <v>0.08758026854811665</v>
+      </c>
+      <c r="J21">
+        <v>0.08758026854811667</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.047364</v>
+      </c>
+      <c r="N21">
+        <v>0.142092</v>
+      </c>
+      <c r="O21">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="P21">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="Q21">
+        <v>0.260875038864</v>
+      </c>
+      <c r="R21">
+        <v>2.347875349776</v>
+      </c>
+      <c r="S21">
+        <v>0.0001496730528264114</v>
+      </c>
+      <c r="T21">
+        <v>0.0001496730528264114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.828283</v>
+      </c>
+      <c r="H22">
+        <v>2.484849</v>
+      </c>
+      <c r="I22">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="J22">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.464112</v>
+      </c>
+      <c r="N22">
+        <v>1.392336</v>
+      </c>
+      <c r="O22">
+        <v>0.0167460263222975</v>
+      </c>
+      <c r="P22">
+        <v>0.0167460263222975</v>
+      </c>
+      <c r="Q22">
+        <v>0.384416079696</v>
+      </c>
+      <c r="R22">
+        <v>3.459744717264</v>
+      </c>
+      <c r="S22">
+        <v>0.0002205528304057352</v>
+      </c>
+      <c r="T22">
+        <v>0.0002205528304057352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.828283</v>
+      </c>
+      <c r="H23">
+        <v>2.484849</v>
+      </c>
+      <c r="I23">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="J23">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.519977</v>
+      </c>
+      <c r="N23">
+        <v>1.559931</v>
+      </c>
+      <c r="O23">
+        <v>0.01876173968565624</v>
+      </c>
+      <c r="P23">
+        <v>0.01876173968565624</v>
+      </c>
+      <c r="Q23">
+        <v>0.430688109491</v>
+      </c>
+      <c r="R23">
+        <v>3.876192985419</v>
+      </c>
+      <c r="S23">
+        <v>0.0002471006978830175</v>
+      </c>
+      <c r="T23">
+        <v>0.0002471006978830175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.828283</v>
+      </c>
+      <c r="H24">
+        <v>2.484849</v>
+      </c>
+      <c r="I24">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="J24">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.638014666666666</v>
+      </c>
+      <c r="N24">
+        <v>7.914044</v>
+      </c>
+      <c r="O24">
+        <v>0.09518448789647081</v>
+      </c>
+      <c r="P24">
+        <v>0.09518448789647084</v>
+      </c>
+      <c r="Q24">
+        <v>2.185022702150667</v>
+      </c>
+      <c r="R24">
+        <v>19.665204319356</v>
+      </c>
+      <c r="S24">
+        <v>0.001253623266334797</v>
+      </c>
+      <c r="T24">
+        <v>0.001253623266334798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.828283</v>
+      </c>
+      <c r="H25">
+        <v>2.484849</v>
+      </c>
+      <c r="I25">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="J25">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>24.04528633333333</v>
+      </c>
+      <c r="N25">
+        <v>72.135859</v>
+      </c>
+      <c r="O25">
+        <v>0.8675987646627977</v>
+      </c>
+      <c r="P25">
+        <v>0.8675987646627977</v>
+      </c>
+      <c r="Q25">
+        <v>19.91630190003233</v>
+      </c>
+      <c r="R25">
+        <v>179.246717100291</v>
+      </c>
+      <c r="S25">
+        <v>0.01142667278314935</v>
+      </c>
+      <c r="T25">
+        <v>0.01142667278314935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.828283</v>
+      </c>
+      <c r="H26">
+        <v>2.484849</v>
+      </c>
+      <c r="I26">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="J26">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.047364</v>
+      </c>
+      <c r="N26">
+        <v>0.142092</v>
+      </c>
+      <c r="O26">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="P26">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="Q26">
+        <v>0.039230796012</v>
+      </c>
+      <c r="R26">
+        <v>0.353077164108</v>
+      </c>
+      <c r="S26">
+        <v>2.250806757708752E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.250806757708753E-05</v>
       </c>
     </row>
   </sheetData>
